--- a/just-tests/data.xlsx
+++ b/just-tests/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rumi\Documents\GitHub\R-Language-lessons\just-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326220B0-7147-4D0D-B5C8-231ECF30734D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44F28E-28C2-43FC-9958-2D92BD1163B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2970" yWindow="675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Open</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -351,35 +357,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>53</v>
       </c>
     </row>
